--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70715AF-EBDF-4A97-A88A-75D4F0359C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC59B5-11A4-4759-BC2F-BD3DB13722D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>true(expire when the stacks drop to 0)</t>
   </si>
   <si>
-    <t>Consume a stack to block na atack</t>
-  </si>
-  <si>
     <t>Feints when this status expire</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>Restore hp and mp each turn</t>
   </si>
   <si>
-    <t>Can not get extra turn, dels minus 50% damage and take plus 50% damage</t>
-  </si>
-  <si>
     <t>Does and take plus 100% damage. Can not control yourself.</t>
   </si>
   <si>
@@ -330,13 +324,19 @@
     <t>Healing</t>
   </si>
   <si>
-    <t>Heals teh target, mana or health</t>
-  </si>
-  <si>
     <t>SPECIAL</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Consume a stack to block an atack</t>
+  </si>
+  <si>
+    <t>Can not get extra turn, deals minus 50% damage and take plus 50% damage</t>
+  </si>
+  <si>
+    <t>Heals the target, mana or health</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -1171,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
@@ -1205,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -1239,7 +1239,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
@@ -1256,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1273,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1290,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1307,13 +1307,13 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,13 +1341,13 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>46</v>
@@ -1375,7 +1375,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1392,13 +1392,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>50</v>
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1440,16 +1440,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC59B5-11A4-4759-BC2F-BD3DB13722D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9744E0-7215-483E-AB53-23DB90D274D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,20 +1231,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>56</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9744E0-7215-483E-AB53-23DB90D274D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586BF3F-38D2-4CB3-B251-86C1371CCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>true (3)</t>
-  </si>
-  <si>
     <t>true(3)</t>
   </si>
   <si>
@@ -337,13 +334,16 @@
   </si>
   <si>
     <t>Heals the target, mana or health</t>
+  </si>
+  <si>
+    <t>true (n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +428,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,21 +766,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,7 +813,7 @@
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -820,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
@@ -933,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -950,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>46</v>
@@ -967,7 +978,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -984,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -1001,13 +1012,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>46</v>
@@ -1035,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -1052,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,13 +1080,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1086,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>46</v>
@@ -1103,7 +1114,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -1120,13 +1131,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -1154,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
@@ -1171,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,7 +1216,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -1222,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>46</v>
@@ -1239,7 +1250,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>50</v>
@@ -1256,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1273,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1290,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1307,13 +1318,13 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,13 +1335,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,13 +1352,13 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>46</v>
@@ -1375,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1392,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>50</v>
@@ -1426,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1440,16 +1451,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586BF3F-38D2-4CB3-B251-86C1371CCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51022A39-A079-47D6-855A-905B126F3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Sick</t>
   </si>
   <si>
-    <t>Exaust</t>
-  </si>
-  <si>
     <t>Root</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Deflect a portion of the damage taken</t>
   </si>
   <si>
-    <t>Reduces damage in 50%</t>
-  </si>
-  <si>
     <t>Buffs all attributes by a certain amount</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>true (n)</t>
+  </si>
+  <si>
+    <t>Exhaust</t>
+  </si>
+  <si>
+    <t>Reduces damage in 30%</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,16 +805,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,16 +873,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,16 +907,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,16 +941,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,16 +975,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,16 +1009,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,16 +1043,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,16 +1077,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,16 +1111,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,13 +1131,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,16 +1145,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,16 +1179,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,16 +1213,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,13 +1233,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1247,33 +1247,33 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
+      <c r="B32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,16 +1281,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,16 +1298,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,16 +1315,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,16 +1332,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,16 +1349,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,16 +1366,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1383,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,16 +1400,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1417,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,16 +1434,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1451,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51022A39-A079-47D6-855A-905B126F3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616C11B-520F-45E0-A268-6EE77C2A7062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,20 +1344,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>89</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616C11B-520F-45E0-A268-6EE77C2A7062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C54AA-DD33-4263-86B3-C8C9BA261817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>plus 25% magical damage per stack (max 4)</t>
   </si>
   <si>
-    <t>minus 50% accuracy</t>
-  </si>
-  <si>
     <t>minus 50% chance of getting debuffs</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Reduces damage in 30%</t>
+  </si>
+  <si>
+    <t>minus 50% accuracy and remove Precision</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +431,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +783,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,20 +956,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -978,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
@@ -995,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
@@ -1012,7 +1015,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
@@ -1029,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>45</v>
@@ -1046,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -1063,13 +1066,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,13 +1083,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>45</v>
@@ -1114,7 +1117,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
@@ -1137,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,7 +1151,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
@@ -1165,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>45</v>
@@ -1182,13 +1185,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,7 +1219,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1233,7 +1236,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>45</v>
@@ -1250,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>49</v>
@@ -1264,10 +1267,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>45</v>
@@ -1284,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1301,7 +1304,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1317,14 +1320,14 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1338,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,13 +1355,13 @@
         <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1386,7 +1389,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1403,13 +1406,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,7 +1423,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>49</v>
@@ -1437,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1451,16 +1454,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C54AA-DD33-4263-86B3-C8C9BA261817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3DFF25-1786-4B40-A4A3-2FAB208EC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,9 +431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,20 +749,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1143,20 +1140,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1320,7 +1317,7 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="2" t="s">

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3DFF25-1786-4B40-A4A3-2FAB208EC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48CD6E0-875D-43FF-AC26-67A3218F3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,20 +1089,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48CD6E0-875D-43FF-AC26-67A3218F3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0015E-531D-468A-850A-75A5223F6106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,20 +1174,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>76</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0015E-531D-468A-850A-75A5223F6106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABAC0D7-78F5-4CE0-A813-0CD984E1291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Recover mp each turn</t>
   </si>
   <si>
-    <t>Make it easily to hit</t>
-  </si>
-  <si>
     <t>true(expire when the target got hited)</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>minus 50% accuracy and remove Precision</t>
+  </si>
+  <si>
+    <t>Evade Status is removed. Can not get the Evade Status.</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -995,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
@@ -1063,30 +1063,30 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>45</v>
@@ -1114,7 +1114,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
@@ -1137,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>49</v>
@@ -1165,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>45</v>
@@ -1182,13 +1182,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1250,7 +1250,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>49</v>
@@ -1264,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>45</v>
@@ -1284,7 +1284,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1301,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1318,13 +1318,13 @@
         <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1335,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,13 +1352,13 @@
         <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1386,7 +1386,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1403,13 +1403,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>49</v>
@@ -1437,7 +1437,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1451,16 +1451,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABAC0D7-78F5-4CE0-A813-0CD984E1291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955932D-8748-4BE1-91D7-B53EEC39CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,20 +1055,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>67</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955932D-8748-4BE1-91D7-B53EEC39CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D94908-4A83-4D16-8EA4-2C061CE33899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,20 +851,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D94908-4A83-4D16-8EA4-2C061CE33899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BFBAE-C1BD-49F2-A6D1-EA3E8E396DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Resist</t>
   </si>
   <si>
-    <t>Invunerable</t>
-  </si>
-  <si>
     <t>Meditation</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Reduce healing by 50%</t>
   </si>
   <si>
-    <t>Can not get Debbuffed</t>
-  </si>
-  <si>
     <t>When reach 100 stacks, de digimon faints</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>Evade Status is removed. Can not get the Evade Status.</t>
+  </si>
+  <si>
+    <t>Unstoppable</t>
+  </si>
+  <si>
+    <t>Can not get Disabled</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,13 +774,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,13 +842,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +910,13 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +978,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,30 +995,30 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,16 +1043,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,16 +1077,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1097,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,16 +1111,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,13 +1131,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1145,16 +1145,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1179,16 +1179,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,16 +1213,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,13 +1233,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1247,16 +1247,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1264,16 +1264,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,16 +1281,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,13 +1301,13 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,16 +1315,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1335,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1349,16 +1349,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1383,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,13 +1403,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1417,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1437,13 +1437,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1451,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BFBAE-C1BD-49F2-A6D1-EA3E8E396DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021054E4-FA1E-4DC9-9C37-A2A4D019EE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>StatusID</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Adrenaline</t>
   </si>
   <si>
-    <t>Fury</t>
-  </si>
-  <si>
     <t>Focus</t>
   </si>
   <si>
@@ -267,12 +264,6 @@
     <t>Can not escape battle</t>
   </si>
   <si>
-    <t>Buffs damage by 100%. Can only use damage skills</t>
-  </si>
-  <si>
-    <t>true(3-5)</t>
-  </si>
-  <si>
     <t>May change the target of the skills</t>
   </si>
   <si>
@@ -337,6 +328,12 @@
   </si>
   <si>
     <t>Can not get Disabled</t>
+  </si>
+  <si>
+    <t>LifeSteal</t>
+  </si>
+  <si>
+    <t>Heals when do damage.</t>
   </si>
 </sst>
 </file>
@@ -718,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,13 +771,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +788,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,13 +839,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -859,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +873,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +907,13 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +924,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,13 +958,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +975,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1009,16 +1006,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,13 +1043,13 @@
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1063,13 +1060,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,13 +1077,13 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1097,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,13 +1111,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,13 +1128,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1148,13 +1145,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,13 +1179,13 @@
         <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,13 +1213,13 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,13 +1230,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1250,13 +1247,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1264,16 +1261,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,13 +1281,13 @@
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,30 +1298,30 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1332,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1349,16 +1346,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1380,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,13 +1400,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1414,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1437,13 +1434,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1448,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021054E4-FA1E-4DC9-9C37-A2A4D019EE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF2445-88BF-4EBF-992C-160A1F31EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF2445-88BF-4EBF-992C-160A1F31EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED2CD0F-87BC-4180-AFF9-A46586F8C386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
   <si>
     <t>StatusID</t>
   </si>
@@ -334,6 +334,78 @@
   </si>
   <si>
     <t>Heals when do damage.</t>
+  </si>
+  <si>
+    <t>STR +</t>
+  </si>
+  <si>
+    <t>STR -</t>
+  </si>
+  <si>
+    <t>INT +</t>
+  </si>
+  <si>
+    <t>INT -</t>
+  </si>
+  <si>
+    <t>AGI +</t>
+  </si>
+  <si>
+    <t>AGI -</t>
+  </si>
+  <si>
+    <t>VIT +</t>
+  </si>
+  <si>
+    <t>VIT -</t>
+  </si>
+  <si>
+    <t>WIS +</t>
+  </si>
+  <si>
+    <t>WIS -</t>
+  </si>
+  <si>
+    <t>DEX +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEX - </t>
+  </si>
+  <si>
+    <t>Increase STR by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease STR by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Increase INT by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease INT by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Increase AGI by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease AGI by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Increase VIT by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease VIT by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Increase WIS by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease WIS by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Increase DEX by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Decrease DEX by a certain amount (stacks)</t>
   </si>
 </sst>
 </file>
@@ -713,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1532,215 @@
         <v>90</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED2CD0F-87BC-4180-AFF9-A46586F8C386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917129B-C76B-4742-B424-C6357D069826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,20 +988,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917129B-C76B-4742-B424-C6357D069826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CEFB28-82F0-4E6B-8461-77AA4D1EEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,20 +1345,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1430,21 +1430,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>53</v>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,37 +1532,37 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1634,37 +1634,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CEFB28-82F0-4E6B-8461-77AA4D1EEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CD812-7FA5-4152-A30C-D8BF405277A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,20 +852,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CD812-7FA5-4152-A30C-D8BF405277A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA90E8-F4A0-4007-A771-668F31113C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,20 +954,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>57</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA90E8-F4A0-4007-A771-668F31113C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E122F81-656D-4458-869E-E7A5D65B602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,20 +869,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1600,37 +1600,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E122F81-656D-4458-869E-E7A5D65B602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C5CA8-B440-4044-86D8-FF1467B50381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,20 +886,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C5CA8-B440-4044-86D8-FF1467B50381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86FFE65-5BBA-492B-80B9-9A9976D86F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,20 +903,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86FFE65-5BBA-492B-80B9-9A9976D86F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5CADF-B8A5-466D-A72D-A80AD7268CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +445,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,7 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +508,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,7 +799,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,20 +948,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5CADF-B8A5-466D-A72D-A80AD7268CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B528A42-0703-430B-A0FB-1E40F22B7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,7 +799,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,20 +982,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B528A42-0703-430B-A0FB-1E40F22B7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CA1DC-98FD-41B7-B0A9-D9BED1F5AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,14 +445,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,7 +502,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,20 +1008,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CA1DC-98FD-41B7-B0A9-D9BED1F5AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9898EF6-DA6B-40C3-BCC2-5D4B9B938189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>plus 25% magical damage per stack (max 4)</t>
   </si>
   <si>
-    <t>minus 50% chance of getting debuffs</t>
-  </si>
-  <si>
     <t>Reduce healing by 50%</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Decrease DEX by a certain amount (stacks)</t>
+  </si>
+  <si>
+    <t>Every debuff has 25% minus chance of being aplied</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,9 +500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +849,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -947,7 +944,7 @@
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1033,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -1042,20 +1039,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1067,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1081,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -1101,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
@@ -1118,7 +1115,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>47</v>
@@ -1135,13 +1132,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1152,13 +1149,13 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>43</v>
@@ -1186,7 +1183,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>47</v>
@@ -1209,7 +1206,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
@@ -1237,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
@@ -1254,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1305,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
@@ -1322,7 +1319,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>47</v>
@@ -1336,10 +1333,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>43</v>
@@ -1356,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>47</v>
@@ -1373,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
@@ -1387,10 +1384,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>47</v>
@@ -1407,13 +1404,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,13 +1421,13 @@
         <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1438,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>43</v>
@@ -1458,7 +1455,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>47</v>
@@ -1475,13 +1472,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1509,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1523,16 +1520,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1540,10 +1537,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>47</v>
@@ -1557,10 +1554,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>43</v>
@@ -1574,10 +1571,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
@@ -1591,10 +1588,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>43</v>
@@ -1608,10 +1605,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>47</v>
@@ -1625,10 +1622,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
@@ -1642,10 +1639,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>47</v>
@@ -1659,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
@@ -1676,10 +1673,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>47</v>
@@ -1693,10 +1690,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>43</v>
@@ -1710,10 +1707,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>47</v>
@@ -1727,10 +1724,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>43</v>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9898EF6-DA6B-40C3-BCC2-5D4B9B938189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB1E85-FB64-477F-ACAF-0EB57AB7CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,20 +1056,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB1E85-FB64-477F-ACAF-0EB57AB7CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB12C4B-2CA4-45DB-9311-8504F5A637A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,20 +1090,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB12C4B-2CA4-45DB-9311-8504F5A637A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1019A850-2FED-47FE-A499-C031C7CE9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,20 +1107,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1019A850-2FED-47FE-A499-C031C7CE9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBFCED-290F-4117-92D7-E1C4EFB3A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
   <si>
     <t>StatusID</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Consume a stack to block an atack</t>
   </si>
   <si>
-    <t>Can not get extra turn, deals minus 50% damage and take plus 50% damage</t>
-  </si>
-  <si>
     <t>Heals the target, mana or health</t>
   </si>
   <si>
@@ -406,6 +403,12 @@
   </si>
   <si>
     <t>Every debuff has 25% minus chance of being aplied</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Can not get extra turn, get a AGI- debuff every turn start.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -1047,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -1078,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -1132,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>43</v>
@@ -1175,20 +1178,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1333,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>43</v>
@@ -1384,10 +1387,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>47</v>
@@ -1461,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1523,7 +1526,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>88</v>
@@ -1537,10 +1540,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>47</v>
@@ -1554,10 +1557,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>43</v>
@@ -1571,10 +1574,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
@@ -1588,10 +1591,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>43</v>
@@ -1605,10 +1608,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>47</v>
@@ -1622,10 +1625,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
@@ -1639,10 +1642,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>47</v>
@@ -1656,10 +1659,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
@@ -1673,10 +1676,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>47</v>
@@ -1690,10 +1693,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>43</v>
@@ -1707,10 +1710,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>47</v>
@@ -1724,10 +1727,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>43</v>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBFCED-290F-4117-92D7-E1C4EFB3A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E4416-D0FB-4E84-B880-4DBA5A721C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,20 +1195,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E4416-D0FB-4E84-B880-4DBA5A721C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288919B-ECF0-420B-9143-C0A5244C7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,20 +1229,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288919B-ECF0-420B-9143-C0A5244C7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56583540-E1C3-4C16-8E4A-197BA89A5FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,20 +1263,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56583540-E1C3-4C16-8E4A-197BA89A5FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279661B-6259-4218-AD31-8654F77C2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,20 +1280,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1518,20 +1518,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>89</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279661B-6259-4218-AD31-8654F77C2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0972B9-AC82-4D06-8E04-D4E014590940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,20 +1365,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>126</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0972B9-AC82-4D06-8E04-D4E014590940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5287979A-CA5A-4068-B4D6-CA717ECC17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,20 +1399,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/documentation/StatusEffect Database.xlsx
+++ b/documentation/StatusEffect Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5287979A-CA5A-4068-B4D6-CA717ECC17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C970DF-0A5C-47DC-A702-743789158ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,20 +1450,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>126</v>
       </c>
     </row>
